--- a/kelimeler.xlsx
+++ b/kelimeler.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="72">
   <si>
     <t>English</t>
   </si>
@@ -19,13 +19,100 @@
     <t>Turkish</t>
   </si>
   <si>
+    <t>wisest</t>
+  </si>
+  <si>
+    <t>en bilge</t>
+  </si>
+  <si>
+    <t>existence</t>
+  </si>
+  <si>
+    <t>varoluş</t>
+  </si>
+  <si>
+    <t>vanquish</t>
+  </si>
+  <si>
+    <t>yenmek</t>
+  </si>
+  <si>
+    <t>sincerity</t>
+  </si>
+  <si>
+    <t>içtenlik</t>
+  </si>
+  <si>
+    <t>burden</t>
+  </si>
+  <si>
+    <t>yük</t>
+  </si>
+  <si>
+    <t>itching</t>
+  </si>
+  <si>
+    <t>kaşıntı</t>
+  </si>
+  <si>
+    <t>inflict</t>
+  </si>
+  <si>
+    <t>zorlamak</t>
+  </si>
+  <si>
+    <t>wound</t>
+  </si>
+  <si>
+    <t>yara</t>
+  </si>
+  <si>
+    <t>reveal</t>
+  </si>
+  <si>
+    <t>ortaya çıkarmak</t>
+  </si>
+  <si>
+    <t>calamity</t>
+  </si>
+  <si>
+    <t>felaket</t>
+  </si>
+  <si>
+    <t>pillar</t>
+  </si>
+  <si>
+    <t>sütun</t>
+  </si>
+  <si>
+    <t>cozy</t>
+  </si>
+  <si>
+    <t>Rahat</t>
+  </si>
+  <si>
+    <t>melted</t>
+  </si>
+  <si>
+    <t>erimiş</t>
+  </si>
+  <si>
+    <t>relic</t>
+  </si>
+  <si>
+    <t>kutsal emanet</t>
+  </si>
+  <si>
+    <t>sincere</t>
+  </si>
+  <si>
+    <t>içten</t>
+  </si>
+  <si>
     <t>reign</t>
   </si>
   <si>
     <t>saltanat</t>
-  </si>
-  <si>
-    <t>@dropdown</t>
   </si>
   <si>
     <t>massacre</t>
@@ -409,9 +496,6 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
@@ -421,10 +505,10 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -435,10 +519,10 @@
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -449,10 +533,10 @@
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -463,10 +547,10 @@
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="6">
@@ -477,10 +561,10 @@
         <v>1</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="7">
@@ -491,10 +575,10 @@
         <v>1</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="8">
@@ -505,10 +589,10 @@
         <v>1</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="9">
@@ -519,10 +603,10 @@
         <v>1</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="10">
@@ -533,10 +617,10 @@
         <v>1</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="11">
@@ -547,10 +631,10 @@
         <v>1</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="12">
@@ -561,10 +645,10 @@
         <v>1</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="13">
@@ -575,10 +659,10 @@
         <v>1</v>
       </c>
       <c r="C13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="14">
@@ -589,10 +673,10 @@
         <v>1</v>
       </c>
       <c r="C14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="15">
@@ -603,10 +687,10 @@
         <v>1</v>
       </c>
       <c r="C15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="16">
@@ -617,10 +701,10 @@
         <v>1</v>
       </c>
       <c r="C16" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="17">
@@ -631,10 +715,10 @@
         <v>1</v>
       </c>
       <c r="C17" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="18">
@@ -645,10 +729,10 @@
         <v>1</v>
       </c>
       <c r="C18" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="19">
@@ -659,10 +743,10 @@
         <v>1</v>
       </c>
       <c r="C19" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="20">
@@ -673,10 +757,220 @@
         <v>1</v>
       </c>
       <c r="C20" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D20" s="1" t="s">
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>42</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
